--- a/test_data/test_data.xlsx
+++ b/test_data/test_data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Personal\OrangeHRM\Test_Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Personal\OrangeHRM\test_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71BED1AC-1F0B-4F1A-93D2-DB3506B858BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83C99F37-18E9-4BEF-ADE2-A8F957B675BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
   <si>
     <t>TestCaseID</t>
   </si>
@@ -51,30 +51,12 @@
     <t>https://opensource-demo.orangehrmlive.com/</t>
   </si>
   <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>txtUsername</t>
-  </si>
-  <si>
     <t>Admin</t>
   </si>
   <si>
-    <t>txtPassword</t>
-  </si>
-  <si>
     <t>admin123</t>
   </si>
   <si>
-    <t>btnLogin</t>
-  </si>
-  <si>
-    <t>welcome</t>
-  </si>
-  <si>
-    <t>Welcome Admin</t>
-  </si>
-  <si>
     <t>enter_username</t>
   </si>
   <si>
@@ -88,6 +70,27 @@
   </si>
   <si>
     <t>verify_login</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>xpath</t>
+  </si>
+  <si>
+    <t>//button[@type='submit' and contains(@class, 'orangehrm-login-button')]</t>
+  </si>
+  <si>
+    <t>Dashboard</t>
+  </si>
+  <si>
+    <t>//h6[contains(@class, 'oxd-topbar-header-breadcrumb-module') and text()='Dashboard']</t>
   </si>
 </sst>
 </file>
@@ -132,13 +135,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -424,7 +436,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -432,8 +444,8 @@
     <col min="1" max="1" width="11.28515625" customWidth="1"/>
     <col min="2" max="2" width="16.140625" customWidth="1"/>
     <col min="3" max="3" width="17.28515625" customWidth="1"/>
-    <col min="4" max="4" width="19.28515625" customWidth="1"/>
-    <col min="5" max="5" width="18" customWidth="1"/>
+    <col min="4" max="4" width="38.140625" customWidth="1"/>
+    <col min="5" max="5" width="22.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -453,36 +465,36 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="E2" s="2"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -490,53 +502,53 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>19</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>13</v>
       </c>
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" t="s">
         <v>20</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" xr:uid="{C2EE5156-C14E-46DC-9644-26F0297B0C05}"/>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{A0AD3F29-651A-43A3-8329-45BB62E66113}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/test_data/test_data.xlsx
+++ b/test_data/test_data.xlsx
@@ -1,122 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Personal\OrangeHRM\test_data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83C99F37-18E9-4BEF-ADE2-A8F957B675BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
-  <si>
-    <t>TestCaseID</t>
-  </si>
-  <si>
-    <t>Keyword</t>
-  </si>
-  <si>
-    <t>LocatorType</t>
-  </si>
-  <si>
-    <t>LocatorValue</t>
-  </si>
-  <si>
-    <t>InputData</t>
-  </si>
-  <si>
-    <t>TC01</t>
-  </si>
-  <si>
-    <t>URL</t>
-  </si>
-  <si>
-    <t>https://opensource-demo.orangehrmlive.com/</t>
-  </si>
-  <si>
-    <t>Admin</t>
-  </si>
-  <si>
-    <t>admin123</t>
-  </si>
-  <si>
-    <t>enter_username</t>
-  </si>
-  <si>
-    <t>open_browser</t>
-  </si>
-  <si>
-    <t>enter_password</t>
-  </si>
-  <si>
-    <t>click_login</t>
-  </si>
-  <si>
-    <t>verify_login</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>username</t>
-  </si>
-  <si>
-    <t>password</t>
-  </si>
-  <si>
-    <t>xpath</t>
-  </si>
-  <si>
-    <t>//button[@type='submit' and contains(@class, 'orangehrm-login-button')]</t>
-  </si>
-  <si>
-    <t>Dashboard</t>
-  </si>
-  <si>
-    <t>//h6[contains(@class, 'oxd-topbar-header-breadcrumb-module') and text()='Dashboard']</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="10"/>
+      <sz val="11"/>
+      <u val="single"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -133,40 +52,99 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="6">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -432,123 +410,183 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="E3" sqref="E3:E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="11.28515625" customWidth="1"/>
-    <col min="2" max="2" width="16.140625" customWidth="1"/>
-    <col min="3" max="3" width="17.28515625" customWidth="1"/>
-    <col min="4" max="4" width="38.140625" customWidth="1"/>
-    <col min="5" max="5" width="22.42578125" customWidth="1"/>
+    <col width="11.28515625" customWidth="1" min="1" max="1"/>
+    <col width="16.140625" customWidth="1" min="2" max="2"/>
+    <col width="17.28515625" customWidth="1" min="3" max="3"/>
+    <col width="38.140625" customWidth="1" min="4" max="4"/>
+    <col width="22.42578125" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>TestCaseID</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Keyword</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>LocatorType</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>LocatorValue</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>InputData</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="2"/>
+    <row r="2" ht="45" customHeight="1">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>TC01</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>open_browser</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="inlineStr">
+        <is>
+          <t>URL</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="inlineStr">
+        <is>
+          <t>https://opensource-demo.orangehrmlive.com/</t>
+        </is>
+      </c>
+      <c r="E2" s="2" t="n"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>8</v>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>TC01</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>enter_username</t>
+        </is>
+      </c>
+      <c r="C3" s="1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="D3" s="1" t="inlineStr">
+        <is>
+          <t>username</t>
+        </is>
+      </c>
+      <c r="E3" s="1" t="inlineStr">
+        <is>
+          <t>Admin</t>
+        </is>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>9</v>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>TC01</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>enter_password</t>
+        </is>
+      </c>
+      <c r="C4" s="1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="D4" s="1" t="inlineStr">
+        <is>
+          <t>password</t>
+        </is>
+      </c>
+      <c r="E4" s="1" t="inlineStr">
+        <is>
+          <t>admin123</t>
+        </is>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="1"/>
+    <row r="5" ht="45" customHeight="1">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>TC01</t>
+        </is>
+      </c>
+      <c r="B5" s="4" t="inlineStr">
+        <is>
+          <t>click_login</t>
+        </is>
+      </c>
+      <c r="C5" s="1" t="inlineStr">
+        <is>
+          <t>xpath</t>
+        </is>
+      </c>
+      <c r="D5" s="3" t="inlineStr">
+        <is>
+          <t>//button[@type='submit' and contains(@class, 'orangehrm-login-button')]</t>
+        </is>
+      </c>
+      <c r="E5" s="1" t="n"/>
     </row>
-    <row r="6" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" t="s">
-        <v>20</v>
+    <row r="6" ht="45" customHeight="1">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>TC01</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>verify_login</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>xpath</t>
+        </is>
+      </c>
+      <c r="D6" s="5" t="inlineStr">
+        <is>
+          <t>//h6[contains(@class, 'oxd-text oxd-text--h6 oxd-topbar-header-breadcrumb-module') and text()='Dashboard']</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Dashboard</t>
+        </is>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{A0AD3F29-651A-43A3-8329-45BB62E66113}"/>
+    <hyperlink ref="D2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/test_data/test_data.xlsx
+++ b/test_data/test_data.xlsx
@@ -418,7 +418,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3:E4"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>

--- a/test_data/test_data.xlsx
+++ b/test_data/test_data.xlsx
@@ -418,7 +418,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>

--- a/test_data/test_data.xlsx
+++ b/test_data/test_data.xlsx
@@ -418,7 +418,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
@@ -580,7 +580,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Dashboard</t>
+          <t>Welcome</t>
         </is>
       </c>
     </row>

--- a/test_data/test_data.xlsx
+++ b/test_data/test_data.xlsx
@@ -418,7 +418,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
@@ -580,7 +580,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Welcome</t>
+          <t>Dashboard</t>
         </is>
       </c>
     </row>

--- a/test_data/test_data.xlsx
+++ b/test_data/test_data.xlsx
@@ -54,7 +54,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
@@ -70,6 +70,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -415,16 +418,16 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
     <col width="11.28515625" customWidth="1" min="1" max="1"/>
-    <col width="16.140625" customWidth="1" min="2" max="2"/>
+    <col width="20.7109375" customWidth="1" min="2" max="2"/>
     <col width="17.28515625" customWidth="1" min="3" max="3"/>
     <col width="38.140625" customWidth="1" min="4" max="4"/>
     <col width="22.42578125" customWidth="1" min="5" max="5"/>
@@ -584,6 +587,143 @@
         </is>
       </c>
     </row>
+    <row r="7" ht="45" customHeight="1">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>TC02</t>
+        </is>
+      </c>
+      <c r="B7" s="4" t="inlineStr">
+        <is>
+          <t>click_admin</t>
+        </is>
+      </c>
+      <c r="C7" s="1" t="inlineStr">
+        <is>
+          <t>xpath</t>
+        </is>
+      </c>
+      <c r="D7" s="5" t="inlineStr">
+        <is>
+          <t>//span[@class='oxd-text oxd-text--span oxd-main-menu-item--name'][normalize-space()='Admin']</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" ht="30" customHeight="1">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>TC02</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>click_job</t>
+        </is>
+      </c>
+      <c r="C8" s="1" t="inlineStr">
+        <is>
+          <t>xpath</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>//span[normalize-space()='Job']</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>TC02</t>
+        </is>
+      </c>
+      <c r="B9" s="4" t="inlineStr">
+        <is>
+          <t>click_employmentstatus</t>
+        </is>
+      </c>
+      <c r="C9" s="1" t="inlineStr">
+        <is>
+          <t>xpath</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>//a[text()='Employment Status']</t>
+        </is>
+      </c>
+    </row>
+    <row r="10" ht="60" customHeight="1">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>TC02</t>
+        </is>
+      </c>
+      <c r="B10" s="4" t="inlineStr">
+        <is>
+          <t>click_add</t>
+        </is>
+      </c>
+      <c r="C10" s="1" t="inlineStr">
+        <is>
+          <t>xpath</t>
+        </is>
+      </c>
+      <c r="D10" s="3" t="inlineStr">
+        <is>
+          <t>//button[normalize-space()='Add']</t>
+        </is>
+      </c>
+    </row>
+    <row r="11" ht="30" customHeight="1">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>TC02</t>
+        </is>
+      </c>
+      <c r="B11" s="4" t="inlineStr">
+        <is>
+          <t>enter_name</t>
+        </is>
+      </c>
+      <c r="C11" s="1" t="inlineStr">
+        <is>
+          <t>xpath</t>
+        </is>
+      </c>
+      <c r="D11" s="5" t="inlineStr">
+        <is>
+          <t>//div[@class='oxd-input-group oxd-input-field-bottom-space']//div//input[@class='oxd-input oxd-input--active']</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Testing</t>
+        </is>
+      </c>
+    </row>
+    <row r="12" ht="75" customHeight="1">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>TC02</t>
+        </is>
+      </c>
+      <c r="B12" s="4" t="inlineStr">
+        <is>
+          <t>click_save</t>
+        </is>
+      </c>
+      <c r="C12" s="1" t="inlineStr">
+        <is>
+          <t>xpath</t>
+        </is>
+      </c>
+      <c r="D12" s="6" t="inlineStr">
+        <is>
+          <t>//button[normalize-space()='Save']</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1"/>

--- a/test_data/test_data.xlsx
+++ b/test_data/test_data.xlsx
@@ -418,10 +418,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
@@ -724,6 +724,28 @@
         </is>
       </c>
     </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>TC02</t>
+        </is>
+      </c>
+      <c r="B13" s="4" t="inlineStr">
+        <is>
+          <t>click_nationalities</t>
+        </is>
+      </c>
+      <c r="C13" s="1" t="inlineStr">
+        <is>
+          <t>xpath</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>//a[normalize-space()='Nationalities']</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1"/>
